--- a/data/excel/countries.xlsx
+++ b/data/excel/countries.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\moon.ntkcz.cz\petka\NUŠL\SW\INVENIO 3\taxonomie\taxonomies_od_Dana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cernohlp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5890" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>slug</t>
   </si>
   <si>
-    <t>code_alpha3</t>
-  </si>
-  <si>
     <t>AF</t>
   </si>
   <si>
@@ -2862,6 +2859,9 @@
   </si>
   <si>
     <t>ZWE</t>
+  </si>
+  <si>
+    <t>alpha3Code</t>
   </si>
 </sst>
 </file>
@@ -3195,19 +3195,19 @@
   <dimension ref="A1:S255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
-    <col min="2" max="2" width="7.36328125" customWidth="1"/>
-    <col min="3" max="3" width="43.08984375" customWidth="1"/>
-    <col min="4" max="4" width="43.90625" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -3243,4741 +3243,4741 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>49</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>52</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>54</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>56</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
         <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>61</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>63</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>66</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>70</v>
-      </c>
-      <c r="E22" t="s">
-        <v>71</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>73</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>74</v>
-      </c>
-      <c r="E23" t="s">
-        <v>75</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
         <v>76</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>77</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>78</v>
-      </c>
-      <c r="E24" t="s">
-        <v>79</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
         <v>80</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
         <v>81</v>
-      </c>
-      <c r="D25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" t="s">
-        <v>82</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
         <v>83</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>84</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>85</v>
-      </c>
-      <c r="E26" t="s">
-        <v>86</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
         <v>87</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
         <v>88</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" t="s">
-        <v>89</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
         <v>90</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>91</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>92</v>
-      </c>
-      <c r="E28" t="s">
-        <v>93</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
         <v>94</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
         <v>95</v>
-      </c>
-      <c r="D29" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" t="s">
-        <v>96</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
         <v>97</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>98</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>99</v>
-      </c>
-      <c r="E30" t="s">
-        <v>100</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
         <v>101</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>102</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>103</v>
-      </c>
-      <c r="E31" t="s">
-        <v>104</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
         <v>105</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>106</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>107</v>
-      </c>
-      <c r="E32" t="s">
-        <v>108</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
         <v>109</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>110</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>111</v>
-      </c>
-      <c r="E33" t="s">
-        <v>112</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
         <v>113</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>114</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>115</v>
-      </c>
-      <c r="E34" t="s">
-        <v>116</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" t="s">
         <v>117</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
         <v>118</v>
-      </c>
-      <c r="D35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" t="s">
-        <v>119</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s">
         <v>120</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>121</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>122</v>
-      </c>
-      <c r="E36" t="s">
-        <v>123</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
         <v>124</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>125</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>126</v>
-      </c>
-      <c r="E37" t="s">
-        <v>127</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
         <v>128</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>129</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>130</v>
-      </c>
-      <c r="E38" t="s">
-        <v>131</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
         <v>132</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>133</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>134</v>
-      </c>
-      <c r="E39" t="s">
-        <v>135</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
         <v>136</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>137</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>138</v>
-      </c>
-      <c r="E40" t="s">
-        <v>139</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" t="s">
         <v>140</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>141</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>142</v>
-      </c>
-      <c r="E41" t="s">
-        <v>143</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="S41" s="2"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" t="s">
         <v>144</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" t="s">
         <v>145</v>
-      </c>
-      <c r="D42" t="s">
-        <v>145</v>
-      </c>
-      <c r="E42" t="s">
-        <v>146</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="S42" s="2"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" t="s">
         <v>147</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" t="s">
         <v>148</v>
-      </c>
-      <c r="D43" t="s">
-        <v>148</v>
-      </c>
-      <c r="E43" t="s">
-        <v>149</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="S43" s="2"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>151</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>152</v>
-      </c>
-      <c r="E44" t="s">
-        <v>153</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="S44" s="2"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" t="s">
         <v>154</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" t="s">
         <v>155</v>
-      </c>
-      <c r="D45" t="s">
-        <v>155</v>
-      </c>
-      <c r="E45" t="s">
-        <v>156</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="S45" s="2"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" t="s">
         <v>157</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>158</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>159</v>
-      </c>
-      <c r="E46" t="s">
-        <v>160</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" t="s">
         <v>161</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>162</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>163</v>
-      </c>
-      <c r="E47" t="s">
-        <v>164</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
       <c r="B48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" t="s">
         <v>165</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>166</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>167</v>
-      </c>
-      <c r="E48" t="s">
-        <v>168</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" t="s">
         <v>169</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>170</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>171</v>
-      </c>
-      <c r="E49" t="s">
-        <v>172</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="S49" s="2"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" t="s">
         <v>173</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>174</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>175</v>
-      </c>
-      <c r="E50" t="s">
-        <v>176</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="S50" s="2"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" t="s">
         <v>177</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>178</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>179</v>
-      </c>
-      <c r="E51" t="s">
-        <v>180</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="S51" s="2"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
       <c r="B52" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" t="s">
         <v>181</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>182</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>183</v>
-      </c>
-      <c r="E52" t="s">
-        <v>184</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="S52" s="2"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" t="s">
         <v>185</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>186</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>187</v>
-      </c>
-      <c r="E53" t="s">
-        <v>188</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="S53" s="2"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
       <c r="B54" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" t="s">
         <v>189</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>190</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>191</v>
-      </c>
-      <c r="E54" t="s">
-        <v>192</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="S54" s="2"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" t="s">
         <v>193</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" t="s">
         <v>194</v>
-      </c>
-      <c r="D55" t="s">
-        <v>194</v>
-      </c>
-      <c r="E55" t="s">
-        <v>195</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="S55" s="2"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" t="s">
         <v>196</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>197</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>198</v>
-      </c>
-      <c r="E56" t="s">
-        <v>199</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="S56" s="2"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" t="s">
         <v>200</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" t="s">
         <v>201</v>
-      </c>
-      <c r="D57" t="s">
-        <v>201</v>
-      </c>
-      <c r="E57" t="s">
-        <v>202</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="S57" s="2"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
       <c r="B58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" t="s">
         <v>203</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>204</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>205</v>
-      </c>
-      <c r="E58" t="s">
-        <v>206</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="S58" s="2"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" t="s">
         <v>207</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>208</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>209</v>
-      </c>
-      <c r="E59" t="s">
-        <v>210</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="S59" s="2"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" t="s">
         <v>211</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>212</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>213</v>
-      </c>
-      <c r="E60" t="s">
-        <v>214</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="S60" s="2"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
       <c r="B61" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" t="s">
         <v>215</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>216</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>217</v>
-      </c>
-      <c r="E61" t="s">
-        <v>218</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="S61" s="2"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
       <c r="B62" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" t="s">
         <v>219</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>220</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>221</v>
-      </c>
-      <c r="E62" t="s">
-        <v>222</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="S62" s="2"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
       <c r="B63" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" t="s">
         <v>223</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>224</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>225</v>
-      </c>
-      <c r="E63" t="s">
-        <v>226</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="S63" s="2"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
       <c r="B64" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" t="s">
         <v>227</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>228</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>229</v>
-      </c>
-      <c r="E64" t="s">
-        <v>230</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="S64" s="2"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" t="s">
         <v>231</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>232</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>233</v>
-      </c>
-      <c r="E65" t="s">
-        <v>234</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="S65" s="2"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
       <c r="B66" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" t="s">
         <v>235</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>236</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>237</v>
-      </c>
-      <c r="E66" t="s">
-        <v>238</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="S66" s="2"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
       <c r="B67" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" t="s">
         <v>239</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>240</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>241</v>
-      </c>
-      <c r="E67" t="s">
-        <v>242</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="S67" s="2"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
       <c r="B68" t="s">
+        <v>242</v>
+      </c>
+      <c r="C68" t="s">
         <v>243</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>244</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>245</v>
-      </c>
-      <c r="E68" t="s">
-        <v>246</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="S68" s="2"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
       <c r="B69" t="s">
+        <v>246</v>
+      </c>
+      <c r="C69" t="s">
         <v>247</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>247</v>
+      </c>
+      <c r="E69" t="s">
         <v>248</v>
-      </c>
-      <c r="D69" t="s">
-        <v>248</v>
-      </c>
-      <c r="E69" t="s">
-        <v>249</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="S69" s="2"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
       <c r="B70" t="s">
+        <v>249</v>
+      </c>
+      <c r="C70" t="s">
         <v>250</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>251</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>252</v>
-      </c>
-      <c r="E70" t="s">
-        <v>253</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="S70" s="2"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
       <c r="B71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" t="s">
         <v>254</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>254</v>
+      </c>
+      <c r="E71" t="s">
         <v>255</v>
-      </c>
-      <c r="D71" t="s">
-        <v>255</v>
-      </c>
-      <c r="E71" t="s">
-        <v>256</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="S71" s="2"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
       <c r="B72" t="s">
+        <v>256</v>
+      </c>
+      <c r="C72" t="s">
         <v>257</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>257</v>
+      </c>
+      <c r="E72" t="s">
         <v>258</v>
-      </c>
-      <c r="D72" t="s">
-        <v>258</v>
-      </c>
-      <c r="E72" t="s">
-        <v>259</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="S72" s="2"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
       <c r="B73" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" t="s">
         <v>260</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>260</v>
+      </c>
+      <c r="E73" t="s">
         <v>261</v>
-      </c>
-      <c r="D73" t="s">
-        <v>261</v>
-      </c>
-      <c r="E73" t="s">
-        <v>262</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="S73" s="2"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
       <c r="B74" t="s">
+        <v>262</v>
+      </c>
+      <c r="C74" t="s">
         <v>263</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>264</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>265</v>
-      </c>
-      <c r="E74" t="s">
-        <v>266</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="S74" s="2"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75" t="s">
+        <v>266</v>
+      </c>
+      <c r="C75" t="s">
         <v>267</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>268</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>269</v>
-      </c>
-      <c r="E75" t="s">
-        <v>270</v>
       </c>
       <c r="Q75" s="2"/>
       <c r="S75" s="2"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
       <c r="B76" t="s">
+        <v>270</v>
+      </c>
+      <c r="C76" t="s">
         <v>271</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>271</v>
+      </c>
+      <c r="E76" t="s">
         <v>272</v>
-      </c>
-      <c r="D76" t="s">
-        <v>272</v>
-      </c>
-      <c r="E76" t="s">
-        <v>273</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="S76" s="2"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77" t="s">
+        <v>273</v>
+      </c>
+      <c r="C77" t="s">
         <v>274</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>274</v>
+      </c>
+      <c r="E77" t="s">
         <v>275</v>
-      </c>
-      <c r="D77" t="s">
-        <v>275</v>
-      </c>
-      <c r="E77" t="s">
-        <v>276</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="S77" s="2"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
       <c r="B78" t="s">
+        <v>276</v>
+      </c>
+      <c r="C78" t="s">
         <v>277</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>277</v>
+      </c>
+      <c r="E78" t="s">
         <v>278</v>
-      </c>
-      <c r="D78" t="s">
-        <v>278</v>
-      </c>
-      <c r="E78" t="s">
-        <v>279</v>
       </c>
       <c r="Q78" s="2"/>
       <c r="S78" s="2"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
       <c r="B79" t="s">
+        <v>279</v>
+      </c>
+      <c r="C79" t="s">
         <v>280</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>280</v>
+      </c>
+      <c r="E79" t="s">
         <v>281</v>
-      </c>
-      <c r="D79" t="s">
-        <v>281</v>
-      </c>
-      <c r="E79" t="s">
-        <v>282</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="S79" s="2"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
       <c r="B80" t="s">
+        <v>282</v>
+      </c>
+      <c r="C80" t="s">
         <v>283</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>283</v>
+      </c>
+      <c r="E80" t="s">
         <v>284</v>
-      </c>
-      <c r="D80" t="s">
-        <v>284</v>
-      </c>
-      <c r="E80" t="s">
-        <v>285</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="S80" s="2"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
       <c r="B81" t="s">
+        <v>285</v>
+      </c>
+      <c r="C81" t="s">
         <v>286</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>286</v>
+      </c>
+      <c r="E81" t="s">
         <v>287</v>
-      </c>
-      <c r="D81" t="s">
-        <v>287</v>
-      </c>
-      <c r="E81" t="s">
-        <v>288</v>
       </c>
       <c r="Q81" s="2"/>
       <c r="S81" s="2"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
       <c r="B82" t="s">
+        <v>288</v>
+      </c>
+      <c r="C82" t="s">
         <v>289</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>289</v>
+      </c>
+      <c r="E82" t="s">
         <v>290</v>
-      </c>
-      <c r="D82" t="s">
-        <v>290</v>
-      </c>
-      <c r="E82" t="s">
-        <v>291</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="S82" s="2"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
       <c r="B83" t="s">
+        <v>291</v>
+      </c>
+      <c r="C83" t="s">
         <v>292</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>292</v>
+      </c>
+      <c r="E83" t="s">
         <v>293</v>
-      </c>
-      <c r="D83" t="s">
-        <v>293</v>
-      </c>
-      <c r="E83" t="s">
-        <v>294</v>
       </c>
       <c r="Q83" s="2"/>
       <c r="S83" s="2"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
       <c r="B84" t="s">
+        <v>294</v>
+      </c>
+      <c r="C84" t="s">
         <v>295</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>296</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>297</v>
-      </c>
-      <c r="E84" t="s">
-        <v>298</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="S84" s="2"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
       <c r="B85" t="s">
+        <v>298</v>
+      </c>
+      <c r="C85" t="s">
         <v>299</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>299</v>
+      </c>
+      <c r="E85" t="s">
         <v>300</v>
-      </c>
-      <c r="D85" t="s">
-        <v>300</v>
-      </c>
-      <c r="E85" t="s">
-        <v>301</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="S85" s="2"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
       <c r="B86" t="s">
+        <v>301</v>
+      </c>
+      <c r="C86" t="s">
         <v>302</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>303</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>304</v>
-      </c>
-      <c r="E86" t="s">
-        <v>305</v>
       </c>
       <c r="Q86" s="2"/>
       <c r="S86" s="2"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
       <c r="B87" t="s">
+        <v>305</v>
+      </c>
+      <c r="C87" t="s">
         <v>306</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>306</v>
+      </c>
+      <c r="E87" t="s">
         <v>307</v>
-      </c>
-      <c r="D87" t="s">
-        <v>307</v>
-      </c>
-      <c r="E87" t="s">
-        <v>308</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="S87" s="2"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
       <c r="B88" t="s">
+        <v>308</v>
+      </c>
+      <c r="C88" t="s">
         <v>309</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>310</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>311</v>
-      </c>
-      <c r="E88" t="s">
-        <v>312</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="S88" s="2"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
       <c r="B89" t="s">
+        <v>312</v>
+      </c>
+      <c r="C89" t="s">
         <v>313</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>314</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>315</v>
-      </c>
-      <c r="E89" t="s">
-        <v>316</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="S89" s="2"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
       <c r="B90" t="s">
+        <v>316</v>
+      </c>
+      <c r="C90" t="s">
         <v>317</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>318</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>319</v>
-      </c>
-      <c r="E90" t="s">
-        <v>320</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="S90" s="2"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
       <c r="B91" t="s">
+        <v>320</v>
+      </c>
+      <c r="C91" t="s">
         <v>321</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>322</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>323</v>
-      </c>
-      <c r="E91" t="s">
-        <v>324</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="S91" s="2"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
       <c r="B92" t="s">
+        <v>324</v>
+      </c>
+      <c r="C92" t="s">
         <v>325</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>326</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>327</v>
-      </c>
-      <c r="E92" t="s">
-        <v>328</v>
       </c>
       <c r="Q92" s="2"/>
       <c r="S92" s="2"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
       <c r="B93" t="s">
+        <v>328</v>
+      </c>
+      <c r="C93" t="s">
         <v>329</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>330</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>331</v>
-      </c>
-      <c r="E93" t="s">
-        <v>332</v>
       </c>
       <c r="Q93" s="2"/>
       <c r="S93" s="2"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
       <c r="B94" t="s">
+        <v>332</v>
+      </c>
+      <c r="C94" t="s">
         <v>333</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>334</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>335</v>
-      </c>
-      <c r="E94" t="s">
-        <v>336</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="S94" s="2"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
       <c r="B95" t="s">
+        <v>336</v>
+      </c>
+      <c r="C95" t="s">
         <v>337</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>338</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>339</v>
-      </c>
-      <c r="E95" t="s">
-        <v>340</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="S95" s="2"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
       <c r="B96" t="s">
+        <v>340</v>
+      </c>
+      <c r="C96" t="s">
         <v>341</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>342</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>343</v>
-      </c>
-      <c r="E96" t="s">
-        <v>344</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="S96" s="2"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
       <c r="B97" t="s">
+        <v>344</v>
+      </c>
+      <c r="C97" t="s">
         <v>345</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>346</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>347</v>
-      </c>
-      <c r="E97" t="s">
-        <v>348</v>
       </c>
       <c r="Q97" s="2"/>
       <c r="S97" s="2"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
       <c r="B98" t="s">
+        <v>348</v>
+      </c>
+      <c r="C98" t="s">
         <v>349</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>350</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>351</v>
-      </c>
-      <c r="E98" t="s">
-        <v>352</v>
       </c>
       <c r="Q98" s="2"/>
       <c r="S98" s="2"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
       <c r="B99" t="s">
+        <v>352</v>
+      </c>
+      <c r="C99" t="s">
         <v>353</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>354</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>355</v>
-      </c>
-      <c r="E99" t="s">
-        <v>356</v>
       </c>
       <c r="Q99" s="2"/>
       <c r="S99" s="2"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1</v>
       </c>
       <c r="B100" t="s">
+        <v>356</v>
+      </c>
+      <c r="C100" t="s">
         <v>357</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
+        <v>357</v>
+      </c>
+      <c r="E100" t="s">
         <v>358</v>
-      </c>
-      <c r="D100" t="s">
-        <v>358</v>
-      </c>
-      <c r="E100" t="s">
-        <v>359</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="S100" s="2"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
       <c r="B101" t="s">
+        <v>359</v>
+      </c>
+      <c r="C101" t="s">
         <v>360</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>361</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>362</v>
-      </c>
-      <c r="E101" t="s">
-        <v>363</v>
       </c>
       <c r="Q101" s="2"/>
       <c r="S101" s="2"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1</v>
       </c>
       <c r="B102" t="s">
+        <v>363</v>
+      </c>
+      <c r="C102" t="s">
         <v>364</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>365</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>366</v>
-      </c>
-      <c r="E102" t="s">
-        <v>367</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="S102" s="2"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1</v>
       </c>
       <c r="B103" t="s">
+        <v>367</v>
+      </c>
+      <c r="C103" t="s">
         <v>368</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>369</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>370</v>
-      </c>
-      <c r="E103" t="s">
-        <v>371</v>
       </c>
       <c r="Q103" s="2"/>
       <c r="S103" s="2"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1</v>
       </c>
       <c r="B104" t="s">
+        <v>371</v>
+      </c>
+      <c r="C104" t="s">
         <v>372</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>373</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>374</v>
-      </c>
-      <c r="E104" t="s">
-        <v>375</v>
       </c>
       <c r="Q104" s="2"/>
       <c r="S104" s="2"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1</v>
       </c>
       <c r="B105" t="s">
+        <v>375</v>
+      </c>
+      <c r="C105" t="s">
         <v>376</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>377</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>378</v>
-      </c>
-      <c r="E105" t="s">
-        <v>379</v>
       </c>
       <c r="Q105" s="2"/>
       <c r="S105" s="2"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1</v>
       </c>
       <c r="B106" t="s">
+        <v>379</v>
+      </c>
+      <c r="C106" t="s">
         <v>380</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>381</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>382</v>
-      </c>
-      <c r="E106" t="s">
-        <v>383</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="S106" s="2"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1</v>
       </c>
       <c r="B107" t="s">
+        <v>383</v>
+      </c>
+      <c r="C107" t="s">
         <v>384</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>385</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>386</v>
-      </c>
-      <c r="E107" t="s">
-        <v>387</v>
       </c>
       <c r="Q107" s="2"/>
       <c r="S107" s="2"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1</v>
       </c>
       <c r="B108" t="s">
+        <v>387</v>
+      </c>
+      <c r="C108" t="s">
         <v>388</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>389</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>390</v>
-      </c>
-      <c r="E108" t="s">
-        <v>391</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="S108" s="2"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1</v>
       </c>
       <c r="B109" t="s">
+        <v>391</v>
+      </c>
+      <c r="C109" t="s">
         <v>392</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>393</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>394</v>
-      </c>
-      <c r="E109" t="s">
-        <v>395</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="S109" s="2"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1</v>
       </c>
       <c r="B110" t="s">
+        <v>395</v>
+      </c>
+      <c r="C110" t="s">
         <v>396</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>397</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>398</v>
-      </c>
-      <c r="E110" t="s">
-        <v>399</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="S110" s="2"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1</v>
       </c>
       <c r="B111" t="s">
+        <v>399</v>
+      </c>
+      <c r="C111" t="s">
         <v>400</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>401</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>402</v>
-      </c>
-      <c r="E111" t="s">
-        <v>403</v>
       </c>
       <c r="Q111" s="2"/>
       <c r="S111" s="2"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1</v>
       </c>
       <c r="B112" t="s">
+        <v>403</v>
+      </c>
+      <c r="C112" t="s">
         <v>404</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>405</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>406</v>
-      </c>
-      <c r="E112" t="s">
-        <v>407</v>
       </c>
       <c r="Q112" s="2"/>
       <c r="S112" s="2"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1</v>
       </c>
       <c r="B113" t="s">
+        <v>407</v>
+      </c>
+      <c r="C113" t="s">
         <v>408</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>409</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>410</v>
-      </c>
-      <c r="E113" t="s">
-        <v>411</v>
       </c>
       <c r="Q113" s="2"/>
       <c r="S113" s="2"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1</v>
       </c>
       <c r="B114" t="s">
+        <v>411</v>
+      </c>
+      <c r="C114" t="s">
         <v>412</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>412</v>
+      </c>
+      <c r="E114" t="s">
         <v>413</v>
-      </c>
-      <c r="D114" t="s">
-        <v>413</v>
-      </c>
-      <c r="E114" t="s">
-        <v>414</v>
       </c>
       <c r="Q114" s="2"/>
       <c r="S114" s="2"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1</v>
       </c>
       <c r="B115" t="s">
+        <v>414</v>
+      </c>
+      <c r="C115" t="s">
         <v>415</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>416</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>417</v>
-      </c>
-      <c r="E115" t="s">
-        <v>418</v>
       </c>
       <c r="Q115" s="2"/>
       <c r="S115" s="2"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1</v>
       </c>
       <c r="B116" t="s">
+        <v>418</v>
+      </c>
+      <c r="C116" t="s">
         <v>419</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>420</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>421</v>
-      </c>
-      <c r="E116" t="s">
-        <v>422</v>
       </c>
       <c r="Q116" s="2"/>
       <c r="S116" s="2"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1</v>
       </c>
       <c r="B117" t="s">
+        <v>422</v>
+      </c>
+      <c r="C117" t="s">
         <v>423</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>424</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>425</v>
-      </c>
-      <c r="E117" t="s">
-        <v>426</v>
       </c>
       <c r="Q117" s="2"/>
       <c r="S117" s="2"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1</v>
       </c>
       <c r="B118" t="s">
+        <v>426</v>
+      </c>
+      <c r="C118" t="s">
         <v>427</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>428</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>429</v>
-      </c>
-      <c r="E118" t="s">
-        <v>430</v>
       </c>
       <c r="Q118" s="2"/>
       <c r="S118" s="2"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1</v>
       </c>
       <c r="B119" t="s">
+        <v>430</v>
+      </c>
+      <c r="C119" t="s">
         <v>431</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>432</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>433</v>
-      </c>
-      <c r="E119" t="s">
-        <v>434</v>
       </c>
       <c r="Q119" s="2"/>
       <c r="S119" s="2"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1</v>
       </c>
       <c r="B120" t="s">
+        <v>434</v>
+      </c>
+      <c r="C120" t="s">
         <v>435</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>436</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>437</v>
-      </c>
-      <c r="E120" t="s">
-        <v>438</v>
       </c>
       <c r="Q120" s="2"/>
       <c r="S120" s="2"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1</v>
       </c>
       <c r="B121" t="s">
+        <v>438</v>
+      </c>
+      <c r="C121" t="s">
         <v>439</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>440</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>441</v>
-      </c>
-      <c r="E121" t="s">
-        <v>442</v>
       </c>
       <c r="Q121" s="2"/>
       <c r="S121" s="2"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
       <c r="B122" t="s">
+        <v>442</v>
+      </c>
+      <c r="C122" t="s">
         <v>443</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>444</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>445</v>
-      </c>
-      <c r="E122" t="s">
-        <v>446</v>
       </c>
       <c r="Q122" s="2"/>
       <c r="S122" s="2"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1</v>
       </c>
       <c r="B123" t="s">
+        <v>446</v>
+      </c>
+      <c r="C123" t="s">
         <v>447</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>448</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>449</v>
-      </c>
-      <c r="E123" t="s">
-        <v>450</v>
       </c>
       <c r="Q123" s="2"/>
       <c r="S123" s="2"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1</v>
       </c>
       <c r="B124" t="s">
+        <v>450</v>
+      </c>
+      <c r="C124" t="s">
         <v>451</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>452</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>453</v>
-      </c>
-      <c r="E124" t="s">
-        <v>454</v>
       </c>
       <c r="Q124" s="2"/>
       <c r="S124" s="2"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1</v>
       </c>
       <c r="B125" t="s">
+        <v>454</v>
+      </c>
+      <c r="C125" t="s">
         <v>455</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>455</v>
+      </c>
+      <c r="E125" t="s">
         <v>456</v>
-      </c>
-      <c r="D125" t="s">
-        <v>456</v>
-      </c>
-      <c r="E125" t="s">
-        <v>457</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="S125" s="2"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1</v>
       </c>
       <c r="B126" t="s">
+        <v>457</v>
+      </c>
+      <c r="C126" t="s">
         <v>458</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>459</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>460</v>
-      </c>
-      <c r="E126" t="s">
-        <v>461</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="S126" s="2"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1</v>
       </c>
       <c r="B127" t="s">
+        <v>461</v>
+      </c>
+      <c r="C127" t="s">
         <v>462</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>463</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>464</v>
-      </c>
-      <c r="E127" t="s">
-        <v>465</v>
       </c>
       <c r="Q127" s="2"/>
       <c r="S127" s="2"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1</v>
       </c>
       <c r="B128" t="s">
+        <v>465</v>
+      </c>
+      <c r="C128" t="s">
         <v>466</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>467</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>468</v>
-      </c>
-      <c r="E128" t="s">
-        <v>469</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="S128" s="2"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1</v>
       </c>
       <c r="B129" t="s">
+        <v>469</v>
+      </c>
+      <c r="C129" t="s">
         <v>470</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>471</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>472</v>
-      </c>
-      <c r="E129" t="s">
-        <v>473</v>
       </c>
       <c r="Q129" s="2"/>
       <c r="S129" s="2"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1</v>
       </c>
       <c r="B130" t="s">
+        <v>473</v>
+      </c>
+      <c r="C130" t="s">
         <v>474</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>475</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>476</v>
-      </c>
-      <c r="E130" t="s">
-        <v>477</v>
       </c>
       <c r="Q130" s="2"/>
       <c r="S130" s="2"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1</v>
       </c>
       <c r="B131" t="s">
+        <v>477</v>
+      </c>
+      <c r="C131" t="s">
         <v>478</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>479</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>480</v>
-      </c>
-      <c r="E131" t="s">
-        <v>481</v>
       </c>
       <c r="Q131" s="2"/>
       <c r="S131" s="2"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1</v>
       </c>
       <c r="B132" t="s">
+        <v>481</v>
+      </c>
+      <c r="C132" t="s">
         <v>482</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>483</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>484</v>
-      </c>
-      <c r="E132" t="s">
-        <v>485</v>
       </c>
       <c r="Q132" s="2"/>
       <c r="S132" s="2"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1</v>
       </c>
       <c r="B133" t="s">
+        <v>485</v>
+      </c>
+      <c r="C133" t="s">
         <v>486</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>486</v>
+      </c>
+      <c r="E133" t="s">
         <v>487</v>
-      </c>
-      <c r="D133" t="s">
-        <v>487</v>
-      </c>
-      <c r="E133" t="s">
-        <v>488</v>
       </c>
       <c r="Q133" s="2"/>
       <c r="S133" s="2"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1</v>
       </c>
       <c r="B134" t="s">
+        <v>488</v>
+      </c>
+      <c r="C134" t="s">
         <v>489</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>490</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>491</v>
-      </c>
-      <c r="E134" t="s">
-        <v>492</v>
       </c>
       <c r="Q134" s="2"/>
       <c r="S134" s="2"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1</v>
       </c>
       <c r="B135" t="s">
+        <v>492</v>
+      </c>
+      <c r="C135" t="s">
         <v>493</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>494</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>495</v>
-      </c>
-      <c r="E135" t="s">
-        <v>496</v>
       </c>
       <c r="Q135" s="2"/>
       <c r="S135" s="2"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1</v>
       </c>
       <c r="B136" t="s">
+        <v>496</v>
+      </c>
+      <c r="C136" t="s">
         <v>497</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>498</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>499</v>
-      </c>
-      <c r="E136" t="s">
-        <v>500</v>
       </c>
       <c r="Q136" s="2"/>
       <c r="S136" s="2"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1</v>
       </c>
       <c r="B137" t="s">
+        <v>500</v>
+      </c>
+      <c r="C137" t="s">
         <v>501</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
+        <v>501</v>
+      </c>
+      <c r="E137" t="s">
         <v>502</v>
-      </c>
-      <c r="D137" t="s">
-        <v>502</v>
-      </c>
-      <c r="E137" t="s">
-        <v>503</v>
       </c>
       <c r="Q137" s="2"/>
       <c r="S137" s="2"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1</v>
       </c>
       <c r="B138" t="s">
+        <v>503</v>
+      </c>
+      <c r="C138" t="s">
         <v>504</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>505</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>506</v>
-      </c>
-      <c r="E138" t="s">
-        <v>507</v>
       </c>
       <c r="Q138" s="2"/>
       <c r="S138" s="2"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1</v>
       </c>
       <c r="B139" t="s">
+        <v>507</v>
+      </c>
+      <c r="C139" t="s">
         <v>508</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>508</v>
+      </c>
+      <c r="E139" t="s">
         <v>509</v>
-      </c>
-      <c r="D139" t="s">
-        <v>509</v>
-      </c>
-      <c r="E139" t="s">
-        <v>510</v>
       </c>
       <c r="Q139" s="2"/>
       <c r="S139" s="2"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1</v>
       </c>
       <c r="B140" t="s">
+        <v>510</v>
+      </c>
+      <c r="C140" t="s">
         <v>511</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>511</v>
+      </c>
+      <c r="E140" t="s">
         <v>512</v>
-      </c>
-      <c r="D140" t="s">
-        <v>512</v>
-      </c>
-      <c r="E140" t="s">
-        <v>513</v>
       </c>
       <c r="Q140" s="2"/>
       <c r="S140" s="2"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1</v>
       </c>
       <c r="B141" t="s">
+        <v>513</v>
+      </c>
+      <c r="C141" t="s">
         <v>514</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>515</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>516</v>
-      </c>
-      <c r="E141" t="s">
-        <v>517</v>
       </c>
       <c r="Q141" s="2"/>
       <c r="S141" s="2"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1</v>
       </c>
       <c r="B142" t="s">
+        <v>517</v>
+      </c>
+      <c r="C142" t="s">
         <v>518</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>519</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>520</v>
-      </c>
-      <c r="E142" t="s">
-        <v>521</v>
       </c>
       <c r="Q142" s="2"/>
       <c r="S142" s="2"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1</v>
       </c>
       <c r="B143" t="s">
+        <v>521</v>
+      </c>
+      <c r="C143" t="s">
         <v>522</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>523</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>524</v>
-      </c>
-      <c r="E143" t="s">
-        <v>525</v>
       </c>
       <c r="Q143" s="2"/>
       <c r="S143" s="2"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1</v>
       </c>
       <c r="B144" t="s">
+        <v>525</v>
+      </c>
+      <c r="C144" t="s">
         <v>526</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>527</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>528</v>
-      </c>
-      <c r="E144" t="s">
-        <v>529</v>
       </c>
       <c r="Q144" s="2"/>
       <c r="S144" s="2"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1</v>
       </c>
       <c r="B145" t="s">
+        <v>529</v>
+      </c>
+      <c r="C145" t="s">
         <v>530</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>531</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>532</v>
-      </c>
-      <c r="E145" t="s">
-        <v>533</v>
       </c>
       <c r="Q145" s="2"/>
       <c r="S145" s="2"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1</v>
       </c>
       <c r="B146" t="s">
+        <v>533</v>
+      </c>
+      <c r="C146" t="s">
         <v>534</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
+        <v>534</v>
+      </c>
+      <c r="E146" t="s">
         <v>535</v>
-      </c>
-      <c r="D146" t="s">
-        <v>535</v>
-      </c>
-      <c r="E146" t="s">
-        <v>536</v>
       </c>
       <c r="Q146" s="2"/>
       <c r="S146" s="2"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1</v>
       </c>
       <c r="B147" t="s">
+        <v>536</v>
+      </c>
+      <c r="C147" t="s">
         <v>537</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>538</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>539</v>
-      </c>
-      <c r="E147" t="s">
-        <v>540</v>
       </c>
       <c r="Q147" s="2"/>
       <c r="S147" s="2"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1</v>
       </c>
       <c r="B148" t="s">
+        <v>540</v>
+      </c>
+      <c r="C148" t="s">
         <v>541</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>542</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>543</v>
-      </c>
-      <c r="E148" t="s">
-        <v>544</v>
       </c>
       <c r="Q148" s="2"/>
       <c r="S148" s="2"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1</v>
       </c>
       <c r="B149" t="s">
+        <v>544</v>
+      </c>
+      <c r="C149" t="s">
         <v>545</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>546</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>547</v>
-      </c>
-      <c r="E149" t="s">
-        <v>548</v>
       </c>
       <c r="Q149" s="2"/>
       <c r="S149" s="2"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1</v>
       </c>
       <c r="B150" t="s">
+        <v>548</v>
+      </c>
+      <c r="C150" t="s">
         <v>549</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>550</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>551</v>
-      </c>
-      <c r="E150" t="s">
-        <v>552</v>
       </c>
       <c r="Q150" s="2"/>
       <c r="S150" s="2"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1</v>
       </c>
       <c r="B151" t="s">
+        <v>552</v>
+      </c>
+      <c r="C151" t="s">
         <v>553</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>554</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>555</v>
-      </c>
-      <c r="E151" t="s">
-        <v>556</v>
       </c>
       <c r="Q151" s="2"/>
       <c r="S151" s="2"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1</v>
       </c>
       <c r="B152" t="s">
+        <v>556</v>
+      </c>
+      <c r="C152" t="s">
         <v>557</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>558</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>559</v>
-      </c>
-      <c r="E152" t="s">
-        <v>560</v>
       </c>
       <c r="Q152" s="2"/>
       <c r="S152" s="2"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1</v>
       </c>
       <c r="B153" t="s">
+        <v>560</v>
+      </c>
+      <c r="C153" t="s">
         <v>561</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
+        <v>561</v>
+      </c>
+      <c r="E153" t="s">
         <v>562</v>
-      </c>
-      <c r="D153" t="s">
-        <v>562</v>
-      </c>
-      <c r="E153" t="s">
-        <v>563</v>
       </c>
       <c r="Q153" s="2"/>
       <c r="S153" s="2"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1</v>
       </c>
       <c r="B154" t="s">
+        <v>563</v>
+      </c>
+      <c r="C154" t="s">
         <v>564</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>565</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>566</v>
-      </c>
-      <c r="E154" t="s">
-        <v>567</v>
       </c>
       <c r="Q154" s="2"/>
       <c r="S154" s="2"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1</v>
       </c>
       <c r="B155" t="s">
+        <v>567</v>
+      </c>
+      <c r="C155" t="s">
         <v>568</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
+        <v>568</v>
+      </c>
+      <c r="E155" t="s">
         <v>569</v>
-      </c>
-      <c r="D155" t="s">
-        <v>569</v>
-      </c>
-      <c r="E155" t="s">
-        <v>570</v>
       </c>
       <c r="Q155" s="2"/>
       <c r="S155" s="2"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1</v>
       </c>
       <c r="B156" t="s">
+        <v>570</v>
+      </c>
+      <c r="C156" t="s">
         <v>571</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>572</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>573</v>
-      </c>
-      <c r="E156" t="s">
-        <v>574</v>
       </c>
       <c r="Q156" s="2"/>
       <c r="S156" s="2"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1</v>
       </c>
       <c r="B157" t="s">
+        <v>574</v>
+      </c>
+      <c r="C157" t="s">
         <v>575</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
+        <v>575</v>
+      </c>
+      <c r="E157" t="s">
         <v>576</v>
-      </c>
-      <c r="D157" t="s">
-        <v>576</v>
-      </c>
-      <c r="E157" t="s">
-        <v>577</v>
       </c>
       <c r="Q157" s="2"/>
       <c r="S157" s="2"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1</v>
       </c>
       <c r="B158" t="s">
+        <v>577</v>
+      </c>
+      <c r="C158" t="s">
         <v>578</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>579</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>580</v>
-      </c>
-      <c r="E158" t="s">
-        <v>581</v>
       </c>
       <c r="Q158" s="2"/>
       <c r="S158" s="2"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1</v>
       </c>
       <c r="B159" t="s">
+        <v>581</v>
+      </c>
+      <c r="C159" t="s">
         <v>582</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>583</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>584</v>
-      </c>
-      <c r="E159" t="s">
-        <v>585</v>
       </c>
       <c r="Q159" s="2"/>
       <c r="S159" s="2"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1</v>
       </c>
       <c r="B160" t="s">
+        <v>585</v>
+      </c>
+      <c r="C160" t="s">
         <v>586</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
+        <v>586</v>
+      </c>
+      <c r="E160" t="s">
         <v>587</v>
-      </c>
-      <c r="D160" t="s">
-        <v>587</v>
-      </c>
-      <c r="E160" t="s">
-        <v>588</v>
       </c>
       <c r="Q160" s="2"/>
       <c r="S160" s="2"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1</v>
       </c>
       <c r="B161" t="s">
+        <v>588</v>
+      </c>
+      <c r="C161" t="s">
         <v>589</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>590</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>591</v>
-      </c>
-      <c r="E161" t="s">
-        <v>592</v>
       </c>
       <c r="Q161" s="2"/>
       <c r="S161" s="2"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1</v>
       </c>
       <c r="B162" t="s">
+        <v>592</v>
+      </c>
+      <c r="C162" t="s">
         <v>593</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>594</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>595</v>
-      </c>
-      <c r="E162" t="s">
-        <v>596</v>
       </c>
       <c r="Q162" s="2"/>
       <c r="S162" s="2"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1</v>
       </c>
       <c r="B163" t="s">
+        <v>596</v>
+      </c>
+      <c r="C163" t="s">
         <v>597</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
+        <v>597</v>
+      </c>
+      <c r="E163" t="s">
         <v>598</v>
-      </c>
-      <c r="D163" t="s">
-        <v>598</v>
-      </c>
-      <c r="E163" t="s">
-        <v>599</v>
       </c>
       <c r="Q163" s="2"/>
       <c r="S163" s="2"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1</v>
       </c>
       <c r="B164" t="s">
+        <v>599</v>
+      </c>
+      <c r="C164" t="s">
         <v>600</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>601</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>602</v>
-      </c>
-      <c r="E164" t="s">
-        <v>603</v>
       </c>
       <c r="Q164" s="2"/>
       <c r="S164" s="2"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1</v>
       </c>
       <c r="B165" t="s">
+        <v>603</v>
+      </c>
+      <c r="C165" t="s">
         <v>604</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>605</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>606</v>
-      </c>
-      <c r="E165" t="s">
-        <v>607</v>
       </c>
       <c r="Q165" s="2"/>
       <c r="S165" s="2"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1</v>
       </c>
       <c r="B166" t="s">
+        <v>607</v>
+      </c>
+      <c r="C166" t="s">
         <v>608</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>609</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>610</v>
-      </c>
-      <c r="E166" t="s">
-        <v>611</v>
       </c>
       <c r="Q166" s="2"/>
       <c r="S166" s="2"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1</v>
       </c>
       <c r="B167" t="s">
+        <v>611</v>
+      </c>
+      <c r="C167" t="s">
         <v>612</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>613</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>614</v>
-      </c>
-      <c r="E167" t="s">
-        <v>615</v>
       </c>
       <c r="Q167" s="2"/>
       <c r="S167" s="2"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1</v>
       </c>
       <c r="B168" t="s">
+        <v>615</v>
+      </c>
+      <c r="C168" t="s">
         <v>616</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>617</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>618</v>
-      </c>
-      <c r="E168" t="s">
-        <v>619</v>
       </c>
       <c r="Q168" s="2"/>
       <c r="S168" s="2"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1</v>
       </c>
       <c r="B169" t="s">
+        <v>619</v>
+      </c>
+      <c r="C169" t="s">
         <v>620</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>621</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>622</v>
-      </c>
-      <c r="E169" t="s">
-        <v>623</v>
       </c>
       <c r="Q169" s="2"/>
       <c r="S169" s="2"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1</v>
       </c>
       <c r="B170" t="s">
+        <v>623</v>
+      </c>
+      <c r="C170" t="s">
         <v>624</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>625</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>626</v>
-      </c>
-      <c r="E170" t="s">
-        <v>627</v>
       </c>
       <c r="Q170" s="2"/>
       <c r="S170" s="2"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1</v>
       </c>
       <c r="B171" t="s">
+        <v>627</v>
+      </c>
+      <c r="C171" t="s">
         <v>628</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>629</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>630</v>
-      </c>
-      <c r="E171" t="s">
-        <v>631</v>
       </c>
       <c r="Q171" s="2"/>
       <c r="S171" s="2"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1</v>
       </c>
       <c r="B172" t="s">
+        <v>631</v>
+      </c>
+      <c r="C172" t="s">
         <v>632</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
+        <v>632</v>
+      </c>
+      <c r="E172" t="s">
         <v>633</v>
-      </c>
-      <c r="D172" t="s">
-        <v>633</v>
-      </c>
-      <c r="E172" t="s">
-        <v>634</v>
       </c>
       <c r="Q172" s="2"/>
       <c r="S172" s="2"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1</v>
       </c>
       <c r="B173" t="s">
+        <v>634</v>
+      </c>
+      <c r="C173" t="s">
         <v>635</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>636</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>637</v>
-      </c>
-      <c r="E173" t="s">
-        <v>638</v>
       </c>
       <c r="Q173" s="2"/>
       <c r="S173" s="2"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1</v>
       </c>
       <c r="B174" t="s">
+        <v>638</v>
+      </c>
+      <c r="C174" t="s">
         <v>639</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
+        <v>639</v>
+      </c>
+      <c r="E174" t="s">
         <v>640</v>
-      </c>
-      <c r="D174" t="s">
-        <v>640</v>
-      </c>
-      <c r="E174" t="s">
-        <v>641</v>
       </c>
       <c r="Q174" s="2"/>
       <c r="S174" s="2"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1</v>
       </c>
       <c r="B175" t="s">
+        <v>641</v>
+      </c>
+      <c r="C175" t="s">
         <v>642</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>643</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>644</v>
-      </c>
-      <c r="E175" t="s">
-        <v>645</v>
       </c>
       <c r="Q175" s="2"/>
       <c r="S175" s="2"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1</v>
       </c>
       <c r="B176" t="s">
+        <v>645</v>
+      </c>
+      <c r="C176" t="s">
         <v>646</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
+        <v>646</v>
+      </c>
+      <c r="E176" t="s">
         <v>647</v>
-      </c>
-      <c r="D176" t="s">
-        <v>647</v>
-      </c>
-      <c r="E176" t="s">
-        <v>648</v>
       </c>
       <c r="Q176" s="2"/>
       <c r="S176" s="2"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1</v>
       </c>
       <c r="B177" t="s">
+        <v>648</v>
+      </c>
+      <c r="C177" t="s">
         <v>649</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
+        <v>649</v>
+      </c>
+      <c r="E177" t="s">
         <v>650</v>
-      </c>
-      <c r="D177" t="s">
-        <v>650</v>
-      </c>
-      <c r="E177" t="s">
-        <v>651</v>
       </c>
       <c r="Q177" s="2"/>
       <c r="S177" s="2"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1</v>
       </c>
       <c r="B178" t="s">
+        <v>651</v>
+      </c>
+      <c r="C178" t="s">
         <v>652</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>653</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>654</v>
-      </c>
-      <c r="E178" t="s">
-        <v>655</v>
       </c>
       <c r="Q178" s="2"/>
       <c r="S178" s="2"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1</v>
       </c>
       <c r="B179" t="s">
+        <v>655</v>
+      </c>
+      <c r="C179" t="s">
         <v>656</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>657</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>658</v>
-      </c>
-      <c r="E179" t="s">
-        <v>659</v>
       </c>
       <c r="Q179" s="2"/>
       <c r="S179" s="2"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1</v>
       </c>
       <c r="B180" t="s">
+        <v>659</v>
+      </c>
+      <c r="C180" t="s">
         <v>660</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>661</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>662</v>
-      </c>
-      <c r="E180" t="s">
-        <v>663</v>
       </c>
       <c r="Q180" s="2"/>
       <c r="S180" s="2"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1</v>
       </c>
       <c r="B181" t="s">
+        <v>663</v>
+      </c>
+      <c r="C181" t="s">
         <v>664</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>665</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>666</v>
-      </c>
-      <c r="E181" t="s">
-        <v>667</v>
       </c>
       <c r="Q181" s="2"/>
       <c r="S181" s="2"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1</v>
       </c>
       <c r="B182" t="s">
+        <v>667</v>
+      </c>
+      <c r="C182" t="s">
         <v>668</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>669</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>670</v>
-      </c>
-      <c r="E182" t="s">
-        <v>671</v>
       </c>
       <c r="Q182" s="2"/>
       <c r="S182" s="2"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1</v>
       </c>
       <c r="B183" t="s">
+        <v>671</v>
+      </c>
+      <c r="C183" t="s">
         <v>672</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>673</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>674</v>
-      </c>
-      <c r="E183" t="s">
-        <v>675</v>
       </c>
       <c r="Q183" s="2"/>
       <c r="S183" s="2"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1</v>
       </c>
       <c r="B184" t="s">
+        <v>675</v>
+      </c>
+      <c r="C184" t="s">
         <v>676</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
+        <v>676</v>
+      </c>
+      <c r="E184" t="s">
         <v>677</v>
-      </c>
-      <c r="D184" t="s">
-        <v>677</v>
-      </c>
-      <c r="E184" t="s">
-        <v>678</v>
       </c>
       <c r="Q184" s="2"/>
       <c r="S184" s="2"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1</v>
       </c>
       <c r="B185" t="s">
+        <v>678</v>
+      </c>
+      <c r="C185" t="s">
         <v>679</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>680</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>681</v>
-      </c>
-      <c r="E185" t="s">
-        <v>682</v>
       </c>
       <c r="Q185" s="2"/>
       <c r="S185" s="2"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1</v>
       </c>
       <c r="B186" t="s">
+        <v>682</v>
+      </c>
+      <c r="C186" t="s">
         <v>683</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>684</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>685</v>
-      </c>
-      <c r="E186" t="s">
-        <v>686</v>
       </c>
       <c r="Q186" s="2"/>
       <c r="S186" s="2"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1</v>
       </c>
       <c r="B187" t="s">
+        <v>686</v>
+      </c>
+      <c r="C187" t="s">
         <v>687</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>688</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>689</v>
-      </c>
-      <c r="E187" t="s">
-        <v>690</v>
       </c>
       <c r="Q187" s="2"/>
       <c r="S187" s="2"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1</v>
       </c>
       <c r="B188" t="s">
+        <v>690</v>
+      </c>
+      <c r="C188" t="s">
         <v>691</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
+        <v>691</v>
+      </c>
+      <c r="E188" t="s">
         <v>692</v>
-      </c>
-      <c r="D188" t="s">
-        <v>692</v>
-      </c>
-      <c r="E188" t="s">
-        <v>693</v>
       </c>
       <c r="Q188" s="2"/>
       <c r="S188" s="2"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1</v>
       </c>
       <c r="B189" t="s">
+        <v>693</v>
+      </c>
+      <c r="C189" t="s">
         <v>694</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>695</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>696</v>
-      </c>
-      <c r="E189" t="s">
-        <v>697</v>
       </c>
       <c r="Q189" s="2"/>
       <c r="S189" s="2"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1</v>
       </c>
       <c r="B190" t="s">
+        <v>697</v>
+      </c>
+      <c r="C190" t="s">
         <v>698</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>699</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>700</v>
-      </c>
-      <c r="E190" t="s">
-        <v>701</v>
       </c>
       <c r="Q190" s="2"/>
       <c r="S190" s="2"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1</v>
       </c>
       <c r="B191" t="s">
+        <v>701</v>
+      </c>
+      <c r="C191" t="s">
         <v>702</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>703</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>704</v>
-      </c>
-      <c r="E191" t="s">
-        <v>705</v>
       </c>
       <c r="Q191" s="2"/>
       <c r="S191" s="2"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1</v>
       </c>
       <c r="B192" t="s">
+        <v>705</v>
+      </c>
+      <c r="C192" t="s">
         <v>706</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
+        <v>706</v>
+      </c>
+      <c r="E192" t="s">
         <v>707</v>
-      </c>
-      <c r="D192" t="s">
-        <v>707</v>
-      </c>
-      <c r="E192" t="s">
-        <v>708</v>
       </c>
       <c r="Q192" s="2"/>
       <c r="S192" s="2"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1</v>
       </c>
       <c r="B193" t="s">
+        <v>708</v>
+      </c>
+      <c r="C193" t="s">
         <v>709</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
+        <v>709</v>
+      </c>
+      <c r="E193" t="s">
         <v>710</v>
-      </c>
-      <c r="D193" t="s">
-        <v>710</v>
-      </c>
-      <c r="E193" t="s">
-        <v>711</v>
       </c>
       <c r="Q193" s="2"/>
       <c r="S193" s="2"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1</v>
       </c>
       <c r="B194" t="s">
+        <v>711</v>
+      </c>
+      <c r="C194" t="s">
         <v>712</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>713</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>714</v>
-      </c>
-      <c r="E194" t="s">
-        <v>715</v>
       </c>
       <c r="Q194" s="2"/>
       <c r="S194" s="2"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1</v>
       </c>
       <c r="B195" t="s">
+        <v>715</v>
+      </c>
+      <c r="C195" t="s">
         <v>716</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
+        <v>716</v>
+      </c>
+      <c r="E195" t="s">
         <v>717</v>
-      </c>
-      <c r="D195" t="s">
-        <v>717</v>
-      </c>
-      <c r="E195" t="s">
-        <v>718</v>
       </c>
       <c r="Q195" s="2"/>
       <c r="S195" s="2"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1</v>
       </c>
       <c r="B196" t="s">
+        <v>718</v>
+      </c>
+      <c r="C196" t="s">
         <v>719</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>720</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>721</v>
-      </c>
-      <c r="E196" t="s">
-        <v>722</v>
       </c>
       <c r="Q196" s="2"/>
       <c r="S196" s="2"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1</v>
       </c>
       <c r="B197" t="s">
+        <v>722</v>
+      </c>
+      <c r="C197" t="s">
         <v>723</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>724</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>725</v>
-      </c>
-      <c r="E197" t="s">
-        <v>726</v>
       </c>
       <c r="Q197" s="2"/>
       <c r="S197" s="2"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1</v>
       </c>
       <c r="B198" t="s">
+        <v>726</v>
+      </c>
+      <c r="C198" t="s">
         <v>727</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>728</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>729</v>
-      </c>
-      <c r="E198" t="s">
-        <v>730</v>
       </c>
       <c r="Q198" s="2"/>
       <c r="S198" s="2"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1</v>
       </c>
       <c r="B199" t="s">
+        <v>730</v>
+      </c>
+      <c r="C199" t="s">
         <v>731</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>732</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>733</v>
-      </c>
-      <c r="E199" t="s">
-        <v>734</v>
       </c>
       <c r="Q199" s="2"/>
       <c r="S199" s="2"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1</v>
       </c>
       <c r="B200" t="s">
+        <v>734</v>
+      </c>
+      <c r="C200" t="s">
         <v>735</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
+        <v>735</v>
+      </c>
+      <c r="E200" t="s">
         <v>736</v>
-      </c>
-      <c r="D200" t="s">
-        <v>736</v>
-      </c>
-      <c r="E200" t="s">
-        <v>737</v>
       </c>
       <c r="Q200" s="2"/>
       <c r="S200" s="2"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1</v>
       </c>
       <c r="B201" t="s">
+        <v>737</v>
+      </c>
+      <c r="C201" t="s">
         <v>738</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>739</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>740</v>
-      </c>
-      <c r="E201" t="s">
-        <v>741</v>
       </c>
       <c r="Q201" s="2"/>
       <c r="S201" s="2"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1</v>
       </c>
       <c r="B202" t="s">
+        <v>741</v>
+      </c>
+      <c r="C202" t="s">
         <v>742</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>743</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>744</v>
-      </c>
-      <c r="E202" t="s">
-        <v>745</v>
       </c>
       <c r="Q202" s="2"/>
       <c r="S202" s="2"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1</v>
       </c>
       <c r="B203" t="s">
+        <v>745</v>
+      </c>
+      <c r="C203" t="s">
         <v>746</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>747</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>748</v>
-      </c>
-      <c r="E203" t="s">
-        <v>749</v>
       </c>
       <c r="Q203" s="2"/>
       <c r="S203" s="2"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1</v>
       </c>
       <c r="B204" t="s">
+        <v>749</v>
+      </c>
+      <c r="C204" t="s">
         <v>750</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>751</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>752</v>
-      </c>
-      <c r="E204" t="s">
-        <v>753</v>
       </c>
       <c r="Q204" s="2"/>
       <c r="S204" s="2"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1</v>
       </c>
       <c r="B205" t="s">
+        <v>753</v>
+      </c>
+      <c r="C205" t="s">
         <v>754</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>755</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>756</v>
-      </c>
-      <c r="E205" t="s">
-        <v>757</v>
       </c>
       <c r="Q205" s="2"/>
       <c r="S205" s="2"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1</v>
       </c>
       <c r="B206" t="s">
+        <v>757</v>
+      </c>
+      <c r="C206" t="s">
         <v>758</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>759</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>760</v>
-      </c>
-      <c r="E206" t="s">
-        <v>761</v>
       </c>
       <c r="Q206" s="2"/>
       <c r="S206" s="2"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1</v>
       </c>
       <c r="B207" t="s">
+        <v>761</v>
+      </c>
+      <c r="C207" t="s">
         <v>762</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>763</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>764</v>
-      </c>
-      <c r="E207" t="s">
-        <v>765</v>
       </c>
       <c r="Q207" s="2"/>
       <c r="S207" s="2"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1</v>
       </c>
       <c r="B208" t="s">
+        <v>765</v>
+      </c>
+      <c r="C208" t="s">
         <v>766</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>767</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>768</v>
-      </c>
-      <c r="E208" t="s">
-        <v>769</v>
       </c>
       <c r="Q208" s="2"/>
       <c r="S208" s="2"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1</v>
       </c>
       <c r="B209" t="s">
+        <v>769</v>
+      </c>
+      <c r="C209" t="s">
         <v>770</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>771</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>772</v>
-      </c>
-      <c r="E209" t="s">
-        <v>773</v>
       </c>
       <c r="Q209" s="2"/>
       <c r="S209" s="2"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1</v>
       </c>
       <c r="B210" t="s">
+        <v>773</v>
+      </c>
+      <c r="C210" t="s">
         <v>774</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>775</v>
       </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>776</v>
-      </c>
-      <c r="E210" t="s">
-        <v>777</v>
       </c>
       <c r="Q210" s="2"/>
       <c r="S210" s="2"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1</v>
       </c>
       <c r="B211" t="s">
+        <v>777</v>
+      </c>
+      <c r="C211" t="s">
         <v>778</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>779</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>780</v>
-      </c>
-      <c r="E211" t="s">
-        <v>781</v>
       </c>
       <c r="Q211" s="2"/>
       <c r="S211" s="2"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1</v>
       </c>
       <c r="B212" t="s">
+        <v>781</v>
+      </c>
+      <c r="C212" t="s">
         <v>782</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>783</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>784</v>
-      </c>
-      <c r="E212" t="s">
-        <v>785</v>
       </c>
       <c r="Q212" s="2"/>
       <c r="S212" s="2"/>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1</v>
       </c>
       <c r="B213" t="s">
+        <v>785</v>
+      </c>
+      <c r="C213" t="s">
         <v>786</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>787</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>788</v>
-      </c>
-      <c r="E213" t="s">
-        <v>789</v>
       </c>
       <c r="Q213" s="2"/>
       <c r="S213" s="2"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1</v>
       </c>
       <c r="B214" t="s">
+        <v>789</v>
+      </c>
+      <c r="C214" t="s">
         <v>790</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>791</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>792</v>
-      </c>
-      <c r="E214" t="s">
-        <v>793</v>
       </c>
       <c r="Q214" s="2"/>
       <c r="S214" s="2"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1</v>
       </c>
       <c r="B215" t="s">
+        <v>793</v>
+      </c>
+      <c r="C215" t="s">
         <v>794</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>795</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
         <v>796</v>
-      </c>
-      <c r="E215" t="s">
-        <v>797</v>
       </c>
       <c r="Q215" s="2"/>
       <c r="S215" s="2"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1</v>
       </c>
       <c r="B216" t="s">
+        <v>797</v>
+      </c>
+      <c r="C216" t="s">
         <v>798</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>799</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>800</v>
-      </c>
-      <c r="E216" t="s">
-        <v>801</v>
       </c>
       <c r="Q216" s="2"/>
       <c r="S216" s="2"/>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1</v>
       </c>
       <c r="B217" t="s">
+        <v>801</v>
+      </c>
+      <c r="C217" t="s">
         <v>802</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>803</v>
       </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>804</v>
-      </c>
-      <c r="E217" t="s">
-        <v>805</v>
       </c>
       <c r="Q217" s="2"/>
       <c r="S217" s="2"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1</v>
       </c>
       <c r="B218" t="s">
+        <v>805</v>
+      </c>
+      <c r="C218" t="s">
         <v>806</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>807</v>
       </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
         <v>808</v>
-      </c>
-      <c r="E218" t="s">
-        <v>809</v>
       </c>
       <c r="Q218" s="2"/>
       <c r="S218" s="2"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1</v>
       </c>
       <c r="B219" t="s">
+        <v>809</v>
+      </c>
+      <c r="C219" t="s">
         <v>810</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>811</v>
       </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>812</v>
-      </c>
-      <c r="E219" t="s">
-        <v>813</v>
       </c>
       <c r="Q219" s="2"/>
       <c r="S219" s="2"/>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1</v>
       </c>
       <c r="B220" t="s">
+        <v>813</v>
+      </c>
+      <c r="C220" t="s">
         <v>814</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>815</v>
       </c>
-      <c r="D220" t="s">
+      <c r="E220" t="s">
         <v>816</v>
-      </c>
-      <c r="E220" t="s">
-        <v>817</v>
       </c>
       <c r="Q220" s="2"/>
       <c r="S220" s="2"/>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1</v>
       </c>
       <c r="B221" t="s">
+        <v>817</v>
+      </c>
+      <c r="C221" t="s">
         <v>818</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>819</v>
       </c>
-      <c r="D221" t="s">
+      <c r="E221" t="s">
         <v>820</v>
-      </c>
-      <c r="E221" t="s">
-        <v>821</v>
       </c>
       <c r="Q221" s="2"/>
       <c r="S221" s="2"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1</v>
       </c>
       <c r="B222" t="s">
+        <v>821</v>
+      </c>
+      <c r="C222" t="s">
         <v>822</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>823</v>
       </c>
-      <c r="D222" t="s">
+      <c r="E222" t="s">
         <v>824</v>
-      </c>
-      <c r="E222" t="s">
-        <v>825</v>
       </c>
       <c r="Q222" s="2"/>
       <c r="S222" s="2"/>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1</v>
       </c>
       <c r="B223" t="s">
+        <v>825</v>
+      </c>
+      <c r="C223" t="s">
         <v>826</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>827</v>
       </c>
-      <c r="D223" t="s">
+      <c r="E223" t="s">
         <v>828</v>
-      </c>
-      <c r="E223" t="s">
-        <v>829</v>
       </c>
       <c r="Q223" s="2"/>
       <c r="S223" s="2"/>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1</v>
       </c>
       <c r="B224" t="s">
+        <v>829</v>
+      </c>
+      <c r="C224" t="s">
         <v>830</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>831</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>832</v>
-      </c>
-      <c r="E224" t="s">
-        <v>833</v>
       </c>
       <c r="Q224" s="2"/>
       <c r="S224" s="2"/>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>1</v>
       </c>
       <c r="B225" t="s">
+        <v>833</v>
+      </c>
+      <c r="C225" t="s">
         <v>834</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>835</v>
       </c>
-      <c r="D225" t="s">
+      <c r="E225" t="s">
         <v>836</v>
-      </c>
-      <c r="E225" t="s">
-        <v>837</v>
       </c>
       <c r="Q225" s="2"/>
       <c r="S225" s="2"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1</v>
       </c>
       <c r="B226" t="s">
+        <v>837</v>
+      </c>
+      <c r="C226" t="s">
         <v>838</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>839</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
         <v>840</v>
-      </c>
-      <c r="E226" t="s">
-        <v>841</v>
       </c>
       <c r="Q226" s="2"/>
       <c r="S226" s="2"/>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1</v>
       </c>
       <c r="B227" t="s">
+        <v>841</v>
+      </c>
+      <c r="C227" t="s">
         <v>842</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>843</v>
       </c>
-      <c r="D227" t="s">
+      <c r="E227" t="s">
         <v>844</v>
-      </c>
-      <c r="E227" t="s">
-        <v>845</v>
       </c>
       <c r="Q227" s="2"/>
       <c r="S227" s="2"/>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1</v>
       </c>
       <c r="B228" t="s">
+        <v>845</v>
+      </c>
+      <c r="C228" t="s">
         <v>846</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>847</v>
       </c>
-      <c r="D228" t="s">
+      <c r="E228" t="s">
         <v>848</v>
-      </c>
-      <c r="E228" t="s">
-        <v>849</v>
       </c>
       <c r="Q228" s="2"/>
       <c r="S228" s="2"/>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1</v>
       </c>
       <c r="B229" t="s">
+        <v>849</v>
+      </c>
+      <c r="C229" t="s">
         <v>850</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>851</v>
       </c>
-      <c r="D229" t="s">
+      <c r="E229" t="s">
         <v>852</v>
-      </c>
-      <c r="E229" t="s">
-        <v>853</v>
       </c>
       <c r="Q229" s="2"/>
       <c r="S229" s="2"/>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1</v>
       </c>
       <c r="B230" t="s">
+        <v>853</v>
+      </c>
+      <c r="C230" t="s">
         <v>854</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>855</v>
       </c>
-      <c r="D230" t="s">
+      <c r="E230" t="s">
         <v>856</v>
-      </c>
-      <c r="E230" t="s">
-        <v>857</v>
       </c>
       <c r="Q230" s="2"/>
       <c r="S230" s="2"/>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>1</v>
       </c>
       <c r="B231" t="s">
+        <v>857</v>
+      </c>
+      <c r="C231" t="s">
         <v>858</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>859</v>
       </c>
-      <c r="D231" t="s">
+      <c r="E231" t="s">
         <v>860</v>
-      </c>
-      <c r="E231" t="s">
-        <v>861</v>
       </c>
       <c r="Q231" s="2"/>
       <c r="S231" s="2"/>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1</v>
       </c>
       <c r="B232" t="s">
+        <v>861</v>
+      </c>
+      <c r="C232" t="s">
         <v>862</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
+        <v>862</v>
+      </c>
+      <c r="E232" t="s">
         <v>863</v>
-      </c>
-      <c r="D232" t="s">
-        <v>863</v>
-      </c>
-      <c r="E232" t="s">
-        <v>864</v>
       </c>
       <c r="Q232" s="2"/>
       <c r="S232" s="2"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1</v>
       </c>
       <c r="B233" t="s">
+        <v>864</v>
+      </c>
+      <c r="C233" t="s">
         <v>865</v>
       </c>
-      <c r="C233" t="s">
+      <c r="D233" t="s">
+        <v>865</v>
+      </c>
+      <c r="E233" t="s">
         <v>866</v>
-      </c>
-      <c r="D233" t="s">
-        <v>866</v>
-      </c>
-      <c r="E233" t="s">
-        <v>867</v>
       </c>
       <c r="Q233" s="2"/>
       <c r="S233" s="2"/>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1</v>
       </c>
       <c r="B234" t="s">
+        <v>867</v>
+      </c>
+      <c r="C234" t="s">
         <v>868</v>
       </c>
-      <c r="C234" t="s">
+      <c r="D234" t="s">
+        <v>868</v>
+      </c>
+      <c r="E234" t="s">
         <v>869</v>
-      </c>
-      <c r="D234" t="s">
-        <v>869</v>
-      </c>
-      <c r="E234" t="s">
-        <v>870</v>
       </c>
       <c r="Q234" s="2"/>
       <c r="S234" s="2"/>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1</v>
       </c>
       <c r="B235" t="s">
+        <v>870</v>
+      </c>
+      <c r="C235" t="s">
         <v>871</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>872</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
         <v>873</v>
-      </c>
-      <c r="E235" t="s">
-        <v>874</v>
       </c>
       <c r="Q235" s="2"/>
       <c r="S235" s="2"/>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1</v>
       </c>
       <c r="B236" t="s">
+        <v>874</v>
+      </c>
+      <c r="C236" t="s">
         <v>875</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>876</v>
       </c>
-      <c r="D236" t="s">
+      <c r="E236" t="s">
         <v>877</v>
-      </c>
-      <c r="E236" t="s">
-        <v>878</v>
       </c>
       <c r="Q236" s="2"/>
       <c r="S236" s="2"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>1</v>
       </c>
       <c r="B237" t="s">
+        <v>878</v>
+      </c>
+      <c r="C237" t="s">
         <v>879</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>880</v>
       </c>
-      <c r="D237" t="s">
+      <c r="E237" t="s">
         <v>881</v>
-      </c>
-      <c r="E237" t="s">
-        <v>882</v>
       </c>
       <c r="Q237" s="2"/>
       <c r="S237" s="2"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>1</v>
       </c>
       <c r="B238" t="s">
+        <v>882</v>
+      </c>
+      <c r="C238" t="s">
         <v>883</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>884</v>
       </c>
-      <c r="D238" t="s">
+      <c r="E238" t="s">
         <v>885</v>
-      </c>
-      <c r="E238" t="s">
-        <v>886</v>
       </c>
       <c r="Q238" s="2"/>
       <c r="S238" s="2"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>1</v>
       </c>
       <c r="B239" t="s">
+        <v>886</v>
+      </c>
+      <c r="C239" t="s">
         <v>887</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>888</v>
       </c>
-      <c r="D239" t="s">
+      <c r="E239" t="s">
         <v>889</v>
-      </c>
-      <c r="E239" t="s">
-        <v>890</v>
       </c>
       <c r="Q239" s="2"/>
       <c r="S239" s="2"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>1</v>
       </c>
       <c r="B240" t="s">
+        <v>890</v>
+      </c>
+      <c r="C240" t="s">
         <v>891</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
+        <v>891</v>
+      </c>
+      <c r="E240" t="s">
         <v>892</v>
-      </c>
-      <c r="D240" t="s">
-        <v>892</v>
-      </c>
-      <c r="E240" t="s">
-        <v>893</v>
       </c>
       <c r="Q240" s="2"/>
       <c r="S240" s="2"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1</v>
       </c>
       <c r="B241" t="s">
+        <v>893</v>
+      </c>
+      <c r="C241" t="s">
         <v>894</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
+        <v>894</v>
+      </c>
+      <c r="E241" t="s">
         <v>895</v>
-      </c>
-      <c r="D241" t="s">
-        <v>895</v>
-      </c>
-      <c r="E241" t="s">
-        <v>896</v>
       </c>
       <c r="Q241" s="2"/>
       <c r="S241" s="2"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1</v>
       </c>
       <c r="B242" t="s">
+        <v>896</v>
+      </c>
+      <c r="C242" t="s">
         <v>897</v>
       </c>
-      <c r="C242" t="s">
+      <c r="D242" t="s">
         <v>898</v>
       </c>
-      <c r="D242" t="s">
+      <c r="E242" t="s">
         <v>899</v>
-      </c>
-      <c r="E242" t="s">
-        <v>900</v>
       </c>
       <c r="Q242" s="2"/>
       <c r="S242" s="2"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1</v>
       </c>
       <c r="B243" t="s">
+        <v>900</v>
+      </c>
+      <c r="C243" t="s">
         <v>901</v>
       </c>
-      <c r="C243" t="s">
+      <c r="D243" t="s">
+        <v>901</v>
+      </c>
+      <c r="E243" t="s">
         <v>902</v>
-      </c>
-      <c r="D243" t="s">
-        <v>902</v>
-      </c>
-      <c r="E243" t="s">
-        <v>903</v>
       </c>
       <c r="Q243" s="2"/>
       <c r="S243" s="2"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1</v>
       </c>
       <c r="B244" t="s">
+        <v>903</v>
+      </c>
+      <c r="C244" t="s">
         <v>904</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>905</v>
       </c>
-      <c r="D244" t="s">
+      <c r="E244" t="s">
         <v>906</v>
-      </c>
-      <c r="E244" t="s">
-        <v>907</v>
       </c>
       <c r="Q244" s="2"/>
       <c r="S244" s="2"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1</v>
       </c>
       <c r="B245" t="s">
+        <v>907</v>
+      </c>
+      <c r="C245" t="s">
         <v>908</v>
       </c>
-      <c r="C245" t="s">
+      <c r="D245" t="s">
         <v>909</v>
       </c>
-      <c r="D245" t="s">
+      <c r="E245" t="s">
         <v>910</v>
-      </c>
-      <c r="E245" t="s">
-        <v>911</v>
       </c>
       <c r="Q245" s="2"/>
       <c r="S245" s="2"/>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>1</v>
       </c>
       <c r="B246" t="s">
+        <v>911</v>
+      </c>
+      <c r="C246" t="s">
         <v>912</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
+        <v>912</v>
+      </c>
+      <c r="E246" t="s">
         <v>913</v>
-      </c>
-      <c r="D246" t="s">
-        <v>913</v>
-      </c>
-      <c r="E246" t="s">
-        <v>914</v>
       </c>
       <c r="Q246" s="2"/>
       <c r="S246" s="2"/>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1</v>
       </c>
       <c r="B247" t="s">
+        <v>914</v>
+      </c>
+      <c r="C247" t="s">
         <v>915</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>916</v>
       </c>
-      <c r="D247" t="s">
+      <c r="E247" t="s">
         <v>917</v>
-      </c>
-      <c r="E247" t="s">
-        <v>918</v>
       </c>
       <c r="Q247" s="2"/>
       <c r="S247" s="2"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1</v>
       </c>
       <c r="B248" t="s">
+        <v>918</v>
+      </c>
+      <c r="C248" t="s">
         <v>919</v>
       </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>920</v>
       </c>
-      <c r="D248" t="s">
+      <c r="E248" t="s">
         <v>921</v>
-      </c>
-      <c r="E248" t="s">
-        <v>922</v>
       </c>
       <c r="Q248" s="2"/>
       <c r="S248" s="2"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1</v>
       </c>
       <c r="B249" t="s">
+        <v>922</v>
+      </c>
+      <c r="C249" t="s">
         <v>923</v>
       </c>
-      <c r="C249" t="s">
+      <c r="D249" t="s">
         <v>924</v>
       </c>
-      <c r="D249" t="s">
+      <c r="E249" t="s">
         <v>925</v>
-      </c>
-      <c r="E249" t="s">
-        <v>926</v>
       </c>
       <c r="Q249" s="2"/>
       <c r="S249" s="2"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>1</v>
       </c>
       <c r="B250" t="s">
+        <v>926</v>
+      </c>
+      <c r="C250" t="s">
         <v>927</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>928</v>
       </c>
-      <c r="D250" t="s">
+      <c r="E250" t="s">
         <v>929</v>
-      </c>
-      <c r="E250" t="s">
-        <v>930</v>
       </c>
       <c r="Q250" s="2"/>
       <c r="S250" s="2"/>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1</v>
       </c>
       <c r="B251" t="s">
+        <v>930</v>
+      </c>
+      <c r="C251" t="s">
         <v>931</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>932</v>
       </c>
-      <c r="D251" t="s">
+      <c r="E251" t="s">
         <v>933</v>
-      </c>
-      <c r="E251" t="s">
-        <v>934</v>
       </c>
       <c r="Q251" s="2"/>
       <c r="S251" s="2"/>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1</v>
       </c>
       <c r="B252" t="s">
+        <v>934</v>
+      </c>
+      <c r="C252" t="s">
         <v>935</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" t="s">
         <v>936</v>
       </c>
-      <c r="D252" t="s">
+      <c r="E252" t="s">
         <v>937</v>
-      </c>
-      <c r="E252" t="s">
-        <v>938</v>
       </c>
       <c r="Q252" s="2"/>
       <c r="S252" s="2"/>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1</v>
       </c>
       <c r="B253" t="s">
+        <v>938</v>
+      </c>
+      <c r="C253" t="s">
         <v>939</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>940</v>
       </c>
-      <c r="D253" t="s">
+      <c r="E253" t="s">
         <v>941</v>
-      </c>
-      <c r="E253" t="s">
-        <v>942</v>
       </c>
       <c r="Q253" s="2"/>
       <c r="S253" s="2"/>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1</v>
       </c>
       <c r="B254" t="s">
+        <v>942</v>
+      </c>
+      <c r="C254" t="s">
         <v>943</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
+        <v>943</v>
+      </c>
+      <c r="E254" t="s">
         <v>944</v>
-      </c>
-      <c r="D254" t="s">
-        <v>944</v>
-      </c>
-      <c r="E254" t="s">
-        <v>945</v>
       </c>
       <c r="Q254" s="2"/>
       <c r="S254" s="2"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q255" s="2"/>
     </row>
   </sheetData>
